--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/MultiBillPayment.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/MultiBillPayment.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,37 +25,184 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="53">
   <si>
     <t>Case</t>
   </si>
   <si>
-    <t>When valid bill details are provided 05151110478500</t>
-  </si>
-  <si>
-    <t>status_query</t>
-  </si>
-  <si>
-    <t>status_query2</t>
-  </si>
-  <si>
-    <t>UPDATE LP_BILLS L SET L.BILL_STATUS_ID=1 , L.DUE_DATE=TRUNC(SYSDATE) WHERE L.CONSUMER_NO='{ConsumerNo}'</t>
-  </si>
-  <si>
-    <t>BEGIN UPDATE DC_SCHEDULED_TRAN_MASTER STM SET STM.STATE = 46 , STM.IS_DELETED = 1 WHERE STM.BILL_BENEFICIARY_ID = (SELECT BPB.BENEFICIARY_ID FROM DC_BILL_PAYMENT_BENEFICIARY BPB WHERE BPB.CONSUMER_NUMBER = '{ConsumerNo}' AND BPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'YASIR113') AND BPB.IS_ACTIVE = 1);UPDATE DC_BILL_PAYMENT_BENEFICIARY DPB SET DPB.IS_SI_SCHEDULED = 0,DPB.IS_ACTIVE = 0 WHERE DPB.CONSUMER_NUMBER = '{ConsumerNo}' AND DPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'YASIR113') AND DPB.IS_ACTIVE = 1;COMMIT;END;</t>
+    <t>Category_Value</t>
+  </si>
+  <si>
+    <t>Company_Value</t>
+  </si>
+  <si>
+    <t>BillPayment_ConsumerNo_Value</t>
+  </si>
+  <si>
+    <t>Bill_Amount_query</t>
+  </si>
+  <si>
+    <t>company_code_value</t>
+  </si>
+  <si>
+    <t>OTP_Value</t>
+  </si>
+  <si>
+    <t>tran_pass_value</t>
+  </si>
+  <si>
+    <t>tran_type_query</t>
+  </si>
+  <si>
+    <t>tran_amount_query</t>
+  </si>
+  <si>
+    <t>from_account_query</t>
+  </si>
+  <si>
+    <t>company_name_query</t>
+  </si>
+  <si>
+    <t>consumer_no_query</t>
+  </si>
+  <si>
+    <t>db_val</t>
+  </si>
+  <si>
+    <t>db_val2</t>
+  </si>
+  <si>
+    <t>account_no</t>
+  </si>
+  <si>
+    <t>account_type</t>
+  </si>
+  <si>
+    <t>expiry_date</t>
+  </si>
+  <si>
+    <t>schedule_type</t>
+  </si>
+  <si>
+    <t>maximum_amount</t>
+  </si>
+  <si>
+    <t>bene_name</t>
+  </si>
+  <si>
+    <t>bene_query</t>
+  </si>
+  <si>
+    <t>instrument_type</t>
+  </si>
+  <si>
+    <t>schedule_config</t>
+  </si>
+  <si>
+    <t>schedule_verify</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>MEPCO</t>
+  </si>
+  <si>
+    <t>05151110478500</t>
+  </si>
+  <si>
+    <t>SELECT LB.BILL_AMOUNT,LB.COMPANY_CODE FROM LP_BILLS LB WHERE LB.CONSUMER_NO='{ConsumerNo}' ORDER BY LB.CREATED_ON DESC</t>
+  </si>
+  <si>
+    <t>MEPCO001</t>
+  </si>
+  <si>
+    <t>pakistan2</t>
+  </si>
+  <si>
+    <t>SELECT AC.DESCRIPTION FROM DC_TRANSACTION_ACTIVITY_CONFIG AC WHERE AC.TRANSACTION_TYPE_ID =(SELECT DT.TRANSACTION_TYPE_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>SELECT DT.TRANSACTION_AMOUNT FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>SELECT DT.FROM_ACCOUNT FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>SELECT DT.BILL_COMPANY FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>SELECT DT.BILL_CONSUMER_NUMBER FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>DIGITAL_CHANNEL_SEC</t>
+  </si>
+  <si>
+    <t>QAT_BPS</t>
+  </si>
+  <si>
+    <t>02197900643103</t>
+  </si>
+  <si>
+    <t>RETAIL</t>
+  </si>
+  <si>
+    <t>Pay_Transaction_PayBillAmount_RadioBtn</t>
+  </si>
+  <si>
+    <t>Abbs</t>
+  </si>
+  <si>
+    <t>SELECT CC.IS_RECURRING_PAYMENT FROM BPS_COMPANY_CHANNEL CC WHERE CC.COMPANY_CODE = '{Company_Code}' AND CC.CHANNEL_CODE = 'MB'</t>
+  </si>
+  <si>
+    <t>Select Instrument_type from BPS_COMPANY_CHANNEL i where i.COMPANY_CODE='{Company_Code}' and i.CHANNEL_CODE='MB'</t>
+  </si>
+  <si>
+    <t>Select PARAMTER_VALUE from DC_APPLICATION_PARAM_DETAIL i where I.APPLICATION_PARAMETER_ID='906'</t>
+  </si>
+  <si>
+    <t>Select FIRST_EXECUTION_DATE, LAST_EXECUTION_DATE from DC_SCHEDULED_TRAN_MASTER i where I.CUSTOMER_INFO_ID='{customer_info_id}'</t>
+  </si>
+  <si>
+    <t>05151110478600</t>
+  </si>
+  <si>
+    <t>Pay_Transaction_MaxBillAmount_RadioBtn</t>
+  </si>
+  <si>
+    <t>05151110478601</t>
+  </si>
+  <si>
+    <t>Abbc</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided for MultiBill Payment</t>
+  </si>
+  <si>
+    <t>Consumer_No_List</t>
+  </si>
+  <si>
+    <t>19154110419400,19154110419401,19154110419404</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -77,8 +225,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,39 +513,408 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" customWidth="1"/>
+    <col min="1" max="1" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="185.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="87.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="79" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="89.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="127.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="185.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="139.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="118.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2">
+        <v>12345678</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3">
+        <v>12345678</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3">
+        <v>1000</v>
+      </c>
+      <c r="U3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W3" t="s">
+        <v>44</v>
+      </c>
+      <c r="X3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4">
+        <v>12345678</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4" t="s">
+        <v>44</v>
+      </c>
+      <c r="X4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/MultiBillPayment.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/MultiBillPayment.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-6220\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-71620\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="54">
   <si>
     <t>Case</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>19154110419400,19154110419401,19154110419404</t>
+  </si>
+  <si>
+    <t>0400005777052,0400033016199</t>
   </si>
 </sst>
 </file>
@@ -513,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +581,7 @@
         <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>31</v>
@@ -606,6 +609,11 @@
       </c>
       <c r="K2" s="4" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/MultiBillPayment.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/MultiBillPayment.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-71620\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-91520\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="55">
   <si>
     <t>Case</t>
   </si>
@@ -183,10 +183,13 @@
     <t>Consumer_No_List</t>
   </si>
   <si>
-    <t>19154110419400,19154110419401,19154110419404</t>
-  </si>
-  <si>
-    <t>0400005777052,0400033016199</t>
+    <t>04030023521301</t>
+  </si>
+  <si>
+    <t>22122510030002,25721120001,48523120003</t>
+  </si>
+  <si>
+    <t>tran_password</t>
   </si>
 </sst>
 </file>
@@ -516,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,9 +539,10 @@
     <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -575,8 +579,11 @@
       <c r="L1" t="s">
         <v>17</v>
       </c>
+      <c r="M1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -605,15 +612,13 @@
         <v>37</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>52</v>
+      <c r="M2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/MultiBillPayment.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/MultiBillPayment.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-91520\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-9242020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -183,13 +183,13 @@
     <t>Consumer_No_List</t>
   </si>
   <si>
-    <t>04030023521301</t>
-  </si>
-  <si>
     <t>22122510030002,25721120001,48523120003</t>
   </si>
   <si>
     <t>tran_password</t>
+  </si>
+  <si>
+    <t>00476000949001 | SHAISTA | HBL ANNEXE.</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,7 +536,7 @@
     <col min="7" max="7" width="89.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
@@ -580,7 +580,7 @@
         <v>17</v>
       </c>
       <c r="M1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -588,7 +588,7 @@
         <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>31</v>
@@ -612,7 +612,7 @@
         <v>37</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>39</v>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/MultiBillPayment.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/MultiBillPayment.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-9242020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL_Automation_13102020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="76">
   <si>
     <t>Case</t>
   </si>
@@ -177,19 +177,82 @@
     <t>Abbc</t>
   </si>
   <si>
-    <t>When valid bill details are provided for MultiBill Payment</t>
-  </si>
-  <si>
     <t>Consumer_No_List</t>
   </si>
   <si>
-    <t>22122510030002,25721120001,48523120003</t>
-  </si>
-  <si>
     <t>tran_password</t>
   </si>
   <si>
-    <t>00476000949001 | SHAISTA | HBL ANNEXE.</t>
+    <t>To verify that if total bill amount exceeds the available balance in account</t>
+  </si>
+  <si>
+    <t>0400017139124,35543410001,8893027866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02217900453103 </t>
+  </si>
+  <si>
+    <t>When valid bill details and consumer numbers are provided</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02217901629103 </t>
+  </si>
+  <si>
+    <t>To verify that if customer exceed the max bill count in bulk bill payment</t>
+  </si>
+  <si>
+    <t>18152211598806,0400017953700,17151753170304,2648340000,1955470000,28608203569</t>
+  </si>
+  <si>
+    <t>To verify that when user selects PAID bill</t>
+  </si>
+  <si>
+    <t>15159220898100</t>
+  </si>
+  <si>
+    <t>To verify that when user selects Expired bill</t>
+  </si>
+  <si>
+    <t>0400010183608</t>
+  </si>
+  <si>
+    <t>To verify that when user selects the bill of 0 amount</t>
+  </si>
+  <si>
+    <t>0400010578408</t>
+  </si>
+  <si>
+    <t>To verify that when user selects the bill of negative amount</t>
+  </si>
+  <si>
+    <t>0400010584572</t>
+  </si>
+  <si>
+    <t>To verify that when user selects Inquired status bill</t>
+  </si>
+  <si>
+    <t>0400013409909</t>
+  </si>
+  <si>
+    <t>To verify that when allowed days after due date has passed against any particular consumer number</t>
+  </si>
+  <si>
+    <t>1821650000</t>
+  </si>
+  <si>
+    <t>To verify that if user select those bills that are not allowed for multi bill payment</t>
+  </si>
+  <si>
+    <t>1755696</t>
+  </si>
+  <si>
+    <t>To verify limits of multi bill payment</t>
+  </si>
+  <si>
+    <t>0400013409909,72018020900026</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -231,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -239,6 +302,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,16 +583,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="91.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="185.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="87.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="80.5703125" bestFit="1" customWidth="1"/>
@@ -547,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
@@ -580,15 +644,15 @@
         <v>17</v>
       </c>
       <c r="M1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>31</v>
@@ -619,6 +683,391 @@
       </c>
       <c r="M2" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
